--- a/target/test-classes/testdata/C-预约.xlsx
+++ b/target/test-classes/testdata/C-预约.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5985" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="4965" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cancelDriectionBookingOrder" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="getBookingOrderList" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A4:G13"/>
 </workbook>
 </file>
 
@@ -1087,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
